--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -515,7 +515,7 @@
     <col min="2" max="2" style="5" width="14.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
